--- a/client.xlsx
+++ b/client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3ABA9C-74F8-415D-B36D-2D75B1649A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA74377-A076-4771-AB90-67966E4C9777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="864" windowWidth="16224" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1072903</v>
+        <v>107290304</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1072653</v>
+        <v>107265354</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1072680</v>
+        <v>107268069</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1072756</v>
+        <v>107275663</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1072777</v>
+        <v>107277727</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1072111</v>
+        <v>107211145</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1061234</v>
+        <v>106123465</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
